--- a/2-Planilhas/2-vendas-loja1.xlsx
+++ b/2-Planilhas/2-vendas-loja1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoz\Desktop\Estudos\Python-DIO\Biblioteca-Pandas\2-Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A12116-00D6-4D0F-98A2-33E76530CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB9957-E78C-4FDC-8338-105989E44FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>Babuche Chinelo Nuvem - Branco - 34</t>
   </si>
   <si>
@@ -88,15 +85,6 @@
     <t>BOTA OVER 11503 - Black - 36</t>
   </si>
   <si>
-    <t>Botinha Voe Casual - Preto - 37</t>
-  </si>
-  <si>
-    <t>Botinha Voe Casual - Preto - 38</t>
-  </si>
-  <si>
-    <t>Botinha Voe Casual - Preto - 43</t>
-  </si>
-  <si>
     <t>Carteira</t>
   </si>
   <si>
@@ -394,30 +382,6 @@
     <t>Tênis Spark  - Vermelho - 42</t>
   </si>
   <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Branco - 36</t>
-  </si>
-  <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Branco - 40</t>
-  </si>
-  <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Preto - 36</t>
-  </si>
-  <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Preto - 37</t>
-  </si>
-  <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Preto - 38</t>
-  </si>
-  <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Preto - 39</t>
-  </si>
-  <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Preto - 40</t>
-  </si>
-  <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Preto - 42</t>
-  </si>
-  <si>
     <t>Tênis Urbano - Black - 34</t>
   </si>
   <si>
@@ -484,15 +448,6 @@
     <t>Tênis Urbano - Preto - 45</t>
   </si>
   <si>
-    <t>Tênis Voe Casual - Branco - 42</t>
-  </si>
-  <si>
-    <t>Tênis Voe Casual - Preto - 42</t>
-  </si>
-  <si>
-    <t>Tênis Voe Casual - Vermelho - 40</t>
-  </si>
-  <si>
     <t>Moletom Running Masculino  - Vermelho - G</t>
   </si>
   <si>
@@ -503,17 +458,68 @@
   </si>
   <si>
     <t>Sapatilha bailarina</t>
+  </si>
+  <si>
+    <t>Receita</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Preto - 37</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Preto - 38</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Preto - 43</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Branco - 36</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Branco - 40</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Preto - 36</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Preto - 37</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Preto - 38</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Preto - 39</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Preto - 40</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Preto - 42</t>
+  </si>
+  <si>
+    <t>Tênis  Casual - Branco - 42</t>
+  </si>
+  <si>
+    <t>Tênis  Casual - Preto - 42</t>
+  </si>
+  <si>
+    <t>Tênis  Casual - Vermelho - 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,8 +542,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,13 +877,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -887,7 +894,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -898,7 +905,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -909,7 +916,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -920,7 +927,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -931,7 +938,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -942,7 +949,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -953,7 +960,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -964,7 +971,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -975,7 +982,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -986,7 +993,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -997,7 +1004,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1008,7 +1015,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1019,7 +1026,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1030,7 +1037,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1041,7 +1048,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1052,7 +1059,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1063,7 +1070,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1074,7 +1081,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1085,7 +1092,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1096,7 +1103,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1107,7 +1114,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1118,7 +1125,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1129,7 +1136,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1140,7 +1147,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1151,7 +1158,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1162,7 +1169,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1173,7 +1180,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1184,7 +1191,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1195,7 +1202,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -1206,7 +1213,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1217,7 +1224,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1228,7 +1235,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1239,7 +1246,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1250,7 +1257,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1261,7 +1268,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -1272,7 +1279,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1283,7 +1290,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1294,7 +1301,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1305,7 +1312,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1316,7 +1323,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -1327,7 +1334,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1338,7 +1345,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1349,7 +1356,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1360,7 +1367,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1371,7 +1378,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>26</v>
@@ -1382,7 +1389,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1393,7 +1400,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -1404,7 +1411,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1415,7 +1422,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1426,7 +1433,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1437,7 +1444,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1448,7 +1455,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1459,7 +1466,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1470,7 +1477,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -1481,7 +1488,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1492,7 +1499,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1503,7 +1510,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1514,7 +1521,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1525,7 +1532,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1536,7 +1543,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1547,7 +1554,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1558,7 +1565,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1569,7 +1576,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -1580,7 +1587,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1591,7 +1598,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1602,7 +1609,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1613,7 +1620,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1624,7 +1631,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -1635,7 +1642,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -1646,7 +1653,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1657,7 +1664,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1668,7 +1675,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1679,7 +1686,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -1690,7 +1697,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1701,7 +1708,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1712,7 +1719,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1723,7 +1730,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -1734,7 +1741,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1745,7 +1752,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1756,7 +1763,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -1767,7 +1774,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -1778,7 +1785,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1789,7 +1796,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1800,7 +1807,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -1811,7 +1818,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1822,7 +1829,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -1833,7 +1840,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1844,7 +1851,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1855,7 +1862,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1866,7 +1873,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1877,7 +1884,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1888,7 +1895,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -1899,7 +1906,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1910,7 +1917,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1921,7 +1928,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1932,7 +1939,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1943,7 +1950,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1954,7 +1961,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1965,7 +1972,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1976,7 +1983,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1987,7 +1994,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -1998,7 +2005,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -2009,7 +2016,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2020,7 +2027,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2031,7 +2038,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2042,7 +2049,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2053,7 +2060,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2064,7 +2071,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2075,7 +2082,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2086,7 +2093,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2097,7 +2104,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2108,7 +2115,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -2119,7 +2126,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2130,7 +2137,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -2138,7 +2145,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -2149,7 +2156,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -2160,7 +2167,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2171,7 +2178,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -2182,7 +2189,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2193,7 +2200,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2204,7 +2211,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B123">
         <v>8</v>
@@ -2215,7 +2222,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -2226,7 +2233,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2237,7 +2244,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2248,7 +2255,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2259,7 +2266,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2270,7 +2277,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2281,7 +2288,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2292,7 +2299,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2303,7 +2310,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -2314,7 +2321,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2325,7 +2332,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -2336,7 +2343,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2347,7 +2354,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -2358,7 +2365,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2369,7 +2376,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2380,7 +2387,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -2391,7 +2398,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -2402,7 +2409,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2413,7 +2420,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2424,7 +2431,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2435,7 +2442,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B144">
         <v>12</v>
@@ -2446,7 +2453,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2457,7 +2464,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -2468,7 +2475,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -2479,7 +2486,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2490,7 +2497,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2501,7 +2508,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2512,7 +2519,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2523,7 +2530,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2534,7 +2541,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C153">
         <v>79.900000000000006</v>
@@ -2542,7 +2549,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -2553,7 +2560,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2564,7 +2571,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2575,7 +2582,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -2586,7 +2593,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2597,7 +2604,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2608,7 +2615,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>